--- a/src/analysis_examples/circadipy/results_circadipy/square_01/cosinor_per_day_fixed_period_8_square_01_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_01/cosinor_per_day_fixed_period_8_square_01_.xlsx
@@ -565,7 +565,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>24.89000000000045</v>
+        <v>24.52000000000039</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0001134087522307592</v>
+        <v>0.1420904863558349</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0001134087522307592</v>
+        <v>0.1420904863558349</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>55.07979409814978</v>
+        <v>21.33312214223257</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[27.364104380852353, 82.7954838154472]</t>
+          <t>[-7.130940907468755, 49.79718519193389]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.0002313490523144779</v>
+        <v>0.1381557103380096</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0002313490523144779</v>
+        <v>0.1381557103380096</v>
       </c>
       <c r="P2" t="n">
-        <v>1.666710817219811</v>
+        <v>1.163552834662887</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[1.0251843894597341, 2.308237244979888]</t>
+          <t>[-1.7044476659115784, 4.031553335237351]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>4.22279555456484e-06</v>
+        <v>0.418162084492578</v>
       </c>
       <c r="S2" t="n">
-        <v>4.22279555456484e-06</v>
+        <v>0.418162084492578</v>
       </c>
       <c r="T2" t="n">
-        <v>75.07951102074408</v>
+        <v>57.55063296840578</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[58.196877396977, 91.96214464451116]</t>
+          <t>[42.433902379313324, 72.66736355749823]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>1.457345355504458e-11</v>
+        <v>1.05374664549629e-09</v>
       </c>
       <c r="W2" t="n">
-        <v>1.457345355504458e-11</v>
+        <v>1.05374664549629e-09</v>
       </c>
       <c r="X2" t="n">
-        <v>18.28754754754788</v>
+        <v>19.97925925925958</v>
       </c>
       <c r="Y2" t="n">
-        <v>15.74622622622651</v>
+        <v>8.78694694694709</v>
       </c>
       <c r="Z2" t="n">
-        <v>20.82886886886924</v>
+        <v>31.17157157157207</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>24.89000000000045</v>
+        <v>24.52000000000039</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>1.364423732552744e-06</v>
+        <v>0.01587655987138681</v>
       </c>
       <c r="I3" t="n">
-        <v>1.364423732552744e-06</v>
+        <v>0.01587655987138681</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>65.24990172962652</v>
+        <v>32.8804660640216</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[39.64296474341184, 90.85683871584119]</t>
+          <t>[5.582553122523343, 60.178379005519865]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>5.915999656158633e-06</v>
+        <v>0.01933808008628191</v>
       </c>
       <c r="O3" t="n">
-        <v>5.915999656158633e-06</v>
+        <v>0.01933808008628191</v>
       </c>
       <c r="P3" t="n">
-        <v>1.666710817219811</v>
+        <v>1.402552876377425</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[1.2264475824825034, 2.1069740519571187]</t>
+          <t>[0.23271056693257552, 2.572395185822274]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>1.218658063351086e-09</v>
+        <v>0.0198724409230302</v>
       </c>
       <c r="S3" t="n">
-        <v>1.218658063351086e-09</v>
+        <v>0.0198724409230302</v>
       </c>
       <c r="T3" t="n">
-        <v>78.13747724053766</v>
+        <v>67.31151724737798</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[62.57295896623792, 93.7019955148374]</t>
+          <t>[51.648078086606844, 82.97495640814911]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>3.672617765460018e-13</v>
+        <v>3.911293511293934e-11</v>
       </c>
       <c r="W3" t="n">
-        <v>3.672617765460018e-13</v>
+        <v>3.911293511293934e-11</v>
       </c>
       <c r="X3" t="n">
-        <v>18.28754754754788</v>
+        <v>19.04656656656687</v>
       </c>
       <c r="Y3" t="n">
-        <v>16.5435035035038</v>
+        <v>14.48128128128151</v>
       </c>
       <c r="Z3" t="n">
-        <v>20.03159159159195</v>
+        <v>23.61185185185224</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>24.89000000000045</v>
+        <v>24.52000000000039</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>9.510878155616354e-05</v>
+        <v>0.002794187975679763</v>
       </c>
       <c r="I4" t="n">
-        <v>9.510878155616354e-05</v>
+        <v>0.002794187975679763</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>47.77934882280934</v>
+        <v>40.32315010676437</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[21.952939231358116, 73.60575841426056]</t>
+          <t>[12.398476117082268, 68.24782409644648]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.0005405948065944077</v>
+        <v>0.005625279566831898</v>
       </c>
       <c r="O4" t="n">
-        <v>0.0005405948065944077</v>
+        <v>0.005625279566831898</v>
       </c>
       <c r="P4" t="n">
-        <v>1.251605481610348</v>
+        <v>1.301921279866041</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[0.6352369529781168, 1.8679740102425786]</t>
+          <t>[0.48428955821104047, 2.119553001521041]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0.0001761633959691533</v>
+        <v>0.002470335975375937</v>
       </c>
       <c r="S4" t="n">
-        <v>0.0001761633959691533</v>
+        <v>0.002470335975375937</v>
       </c>
       <c r="T4" t="n">
-        <v>58.49782475924321</v>
+        <v>57.73680132759517</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[44.131538793614, 72.86411072487242]</t>
+          <t>[41.97072764629502, 73.50287500889533]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>1.759659085109888e-10</v>
+        <v>2.833144607805593e-09</v>
       </c>
       <c r="W4" t="n">
-        <v>1.759659085109888e-10</v>
+        <v>2.833144607805593e-09</v>
       </c>
       <c r="X4" t="n">
-        <v>19.9319319319323</v>
+        <v>19.43927927927959</v>
       </c>
       <c r="Y4" t="n">
-        <v>17.4902702702706</v>
+        <v>16.24848848848875</v>
       </c>
       <c r="Z4" t="n">
-        <v>22.373593593594</v>
+        <v>22.63007007007043</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>24.89000000000045</v>
+        <v>24.52000000000039</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>1.824053060950348e-05</v>
+        <v>2.427386996473047e-05</v>
       </c>
       <c r="I5" t="n">
-        <v>1.824053060950348e-05</v>
+        <v>2.427386996473047e-05</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>51.6458272150665</v>
+        <v>44.96067884505165</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[25.955936617882628, 77.33571781225037]</t>
+          <t>[21.531839632694457, 68.38951805740884]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.0002001720405560015</v>
+        <v>0.0003539273451895752</v>
       </c>
       <c r="O5" t="n">
-        <v>0.0002001720405560015</v>
+        <v>0.0003539273451895752</v>
       </c>
       <c r="P5" t="n">
-        <v>1.13839493553504</v>
+        <v>0.8993948938205012</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[0.5849211547224247, 1.6918687163476562]</t>
+          <t>[0.37107901213573147, 1.427710775505271]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.0001492206723749945</v>
+        <v>0.001307671816263678</v>
       </c>
       <c r="S5" t="n">
-        <v>0.0001492206723749945</v>
+        <v>0.001307671816263678</v>
       </c>
       <c r="T5" t="n">
-        <v>52.36408786339938</v>
+        <v>46.8886813932255</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[38.38551890777677, 66.34265681902198]</t>
+          <t>[34.608893939775186, 59.16846884667581]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>1.597039167577918e-09</v>
+        <v>9.759397734399045e-10</v>
       </c>
       <c r="W5" t="n">
-        <v>1.597039167577918e-09</v>
+        <v>9.759397734399045e-10</v>
       </c>
       <c r="X5" t="n">
-        <v>20.38040040040077</v>
+        <v>21.01013013013047</v>
       </c>
       <c r="Y5" t="n">
-        <v>18.18788788788822</v>
+        <v>18.9483883883887</v>
       </c>
       <c r="Z5" t="n">
-        <v>22.57291291291332</v>
+        <v>23.07187187187224</v>
       </c>
     </row>
     <row r="6">
@@ -909,7 +909,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>25.34000000000052</v>
+        <v>25.8200000000006</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0007965125777530391</v>
+        <v>0.0001375968508305903</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0007965125777530391</v>
+        <v>0.0001375968508305903</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>55.89115870645315</v>
+        <v>50.82941859554889</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[21.6086291689369, 90.17368824396941]</t>
+          <t>[21.513492637322983, 80.14534455377479]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.00198785548705005</v>
+        <v>0.001086255455417851</v>
       </c>
       <c r="O6" t="n">
-        <v>0.00198785548705005</v>
+        <v>0.001086255455417851</v>
       </c>
       <c r="P6" t="n">
-        <v>0.2956053147521924</v>
+        <v>0.8616580451287321</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[-0.37107901213573236, 0.9622896416401172]</t>
+          <t>[0.3333421634439624, 1.3899739268135018]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.3765837711174633</v>
+        <v>0.001980527455344605</v>
       </c>
       <c r="S6" t="n">
-        <v>0.3765837711174633</v>
+        <v>0.001980527455344605</v>
       </c>
       <c r="T6" t="n">
-        <v>77.60213704453901</v>
+        <v>64.9192575558852</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[58.7358965044756, 96.46837758460242]</t>
+          <t>[49.630043784130066, 80.20847132764032]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>1.333122501279149e-10</v>
+        <v>5.496425536932747e-11</v>
       </c>
       <c r="W6" t="n">
-        <v>1.333122501279149e-10</v>
+        <v>5.496425536932747e-11</v>
       </c>
       <c r="X6" t="n">
-        <v>24.14782782782833</v>
+        <v>22.27911911911963</v>
       </c>
       <c r="Y6" t="n">
-        <v>21.45909909909954</v>
+        <v>20.10806806806853</v>
       </c>
       <c r="Z6" t="n">
-        <v>26.83655655655711</v>
+        <v>24.45017017017074</v>
       </c>
     </row>
     <row r="7">
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>25.34000000000052</v>
+        <v>25.8200000000006</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.007286518532574671</v>
+        <v>1.001502088748829e-05</v>
       </c>
       <c r="I7" t="n">
-        <v>0.007286518532574671</v>
+        <v>1.001502088748829e-05</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>38.27553741428554</v>
+        <v>63.51877427034402</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[9.235565156920686, 67.3155096716504]</t>
+          <t>[35.50730414799442, 91.53024439269362]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.01093722350307003</v>
+        <v>3.827302125070098e-05</v>
       </c>
       <c r="O7" t="n">
-        <v>0.01093722350307003</v>
+        <v>3.827302125070098e-05</v>
       </c>
       <c r="P7" t="n">
-        <v>-0.2012631930227693</v>
+        <v>0.1949737182408082</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-1.1509738850989635, 0.7484474990534249]</t>
+          <t>[-0.3207632138800385, 0.7107106503616549]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.671538483521068</v>
+        <v>0.4503727851081925</v>
       </c>
       <c r="S7" t="n">
-        <v>0.671538483521068</v>
+        <v>0.4503727851081925</v>
       </c>
       <c r="T7" t="n">
-        <v>66.91879942088678</v>
+        <v>68.82611371979564</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[50.77997477448115, 83.05762406729242]</t>
+          <t>[52.949583062502114, 84.70264437708917]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>1.067785859731885e-10</v>
+        <v>3.04751779367507e-11</v>
       </c>
       <c r="W7" t="n">
-        <v>1.067785859731885e-10</v>
+        <v>3.04751779367507e-11</v>
       </c>
       <c r="X7" t="n">
-        <v>0.8116916916917063</v>
+        <v>25.01877877877936</v>
       </c>
       <c r="Y7" t="n">
-        <v>-3.018478478478545</v>
+        <v>22.89941941941995</v>
       </c>
       <c r="Z7" t="n">
-        <v>4.641861861861957</v>
+        <v>27.13813813813876</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>25.34000000000052</v>
+        <v>25.8200000000006</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.000358103763639761</v>
+        <v>0.0004597407380754204</v>
       </c>
       <c r="I8" t="n">
-        <v>0.000358103763639761</v>
+        <v>0.0004597407380754204</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>44.88068888367449</v>
+        <v>46.16002626225416</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[19.078160663726962, 70.68321710362201]</t>
+          <t>[21.97534904734583, 70.3447034771625]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.001051176778072316</v>
+        <v>0.0003773712061734269</v>
       </c>
       <c r="O8" t="n">
-        <v>0.001051176778072316</v>
+        <v>0.0003773712061734269</v>
       </c>
       <c r="P8" t="n">
-        <v>-0.2012631930227693</v>
+        <v>0.05660527303765317</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-0.8805264694746171, 0.4780000834290785]</t>
+          <t>[-0.6100790538502725, 0.7232895999255788]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.5536507596072737</v>
+        <v>0.8649834975903561</v>
       </c>
       <c r="S8" t="n">
-        <v>0.5536507596072737</v>
+        <v>0.8649834975903561</v>
       </c>
       <c r="T8" t="n">
-        <v>51.85236255713703</v>
+        <v>68.38681649750841</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[37.45838869411914, 66.24633642015493]</t>
+          <t>[53.556231712075906, 83.2174012829409]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>4.264452790891937e-09</v>
+        <v>4.99977836909693e-12</v>
       </c>
       <c r="W8" t="n">
-        <v>4.264452790891937e-09</v>
+        <v>4.99977836909693e-12</v>
       </c>
       <c r="X8" t="n">
-        <v>0.8116916916917063</v>
+        <v>25.58738738738798</v>
       </c>
       <c r="Y8" t="n">
-        <v>-1.927767767767812</v>
+        <v>22.84772772772825</v>
       </c>
       <c r="Z8" t="n">
-        <v>3.551151151151224</v>
+        <v>28.32704704704771</v>
       </c>
     </row>
     <row r="9">
@@ -1167,7 +1167,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>25.34000000000052</v>
+        <v>25.8200000000006</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0001178751428696501</v>
+        <v>1.233102615016968e-06</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0001178751428696501</v>
+        <v>1.233102615016968e-06</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>39.52689778887127</v>
+        <v>54.84569182144914</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[16.438070159124905, 62.61572541861763]</t>
+          <t>[31.690861309377254, 78.00052233352103]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.001236159411410753</v>
+        <v>1.965790913560639e-05</v>
       </c>
       <c r="O9" t="n">
-        <v>0.001236159411410753</v>
+        <v>1.965790913560639e-05</v>
       </c>
       <c r="P9" t="n">
-        <v>-0.6792632764518469</v>
+        <v>-0.4025263860455386</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[-1.2453160068283866, -0.11321054607530723]</t>
+          <t>[-0.8679475199106941, 0.0628947478196169]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.01976844502345076</v>
+        <v>0.08835334470312461</v>
       </c>
       <c r="S9" t="n">
-        <v>0.01976844502345076</v>
+        <v>0.08835334470312461</v>
       </c>
       <c r="T9" t="n">
-        <v>57.09413535452352</v>
+        <v>62.83015869490558</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[45.070674209892616, 69.11759649915442]</t>
+          <t>[50.115686215259565, 75.5446311745516]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>2.061462112123991e-12</v>
+        <v>6.0285110237146e-13</v>
       </c>
       <c r="W9" t="n">
-        <v>2.061462112123991e-12</v>
+        <v>6.0285110237146e-13</v>
       </c>
       <c r="X9" t="n">
-        <v>2.739459459459514</v>
+        <v>1.654134134134171</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.4565765765765826</v>
+        <v>-0.2584584584584693</v>
       </c>
       <c r="Z9" t="n">
-        <v>5.022342342342446</v>
+        <v>3.566726726726812</v>
       </c>
     </row>
     <row r="10">
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>25.34000000000052</v>
+        <v>25.8200000000006</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>4.245456518003898e-06</v>
+        <v>3.749629340354943e-06</v>
       </c>
       <c r="I10" t="n">
-        <v>4.245456518003898e-06</v>
+        <v>3.749629340354943e-06</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>50.15088110422893</v>
+        <v>68.2096059002437</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[27.264837813864034, 73.03692439459383]</t>
+          <t>[34.78126371094784, 101.63794808953956]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>6.292860632806097e-05</v>
+        <v>0.0001655130496664992</v>
       </c>
       <c r="O10" t="n">
-        <v>6.292860632806097e-05</v>
+        <v>0.0001655130496664992</v>
       </c>
       <c r="P10" t="n">
-        <v>-1.069210712933463</v>
+        <v>-1.031473864241693</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[-1.572368695490388, -0.5660527303765388]</t>
+          <t>[-1.522052897234694, -0.5408948312486928]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>9.655104085326549e-05</v>
+        <v>0.0001114828898529652</v>
       </c>
       <c r="S10" t="n">
-        <v>9.655104085326549e-05</v>
+        <v>0.0001114828898529652</v>
       </c>
       <c r="T10" t="n">
-        <v>56.33974984677567</v>
+        <v>72.91864675502721</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[43.594471199517486, 69.08502849403386]</t>
+          <t>[55.5112378257745, 90.32605568427992]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>1.736566446197685e-11</v>
+        <v>8.040190735414399e-11</v>
       </c>
       <c r="W10" t="n">
-        <v>1.736566446197685e-11</v>
+        <v>8.040190735414399e-11</v>
       </c>
       <c r="X10" t="n">
-        <v>4.312112112112203</v>
+        <v>4.238718718718815</v>
       </c>
       <c r="Y10" t="n">
-        <v>2.282882882882929</v>
+        <v>2.222742742742792</v>
       </c>
       <c r="Z10" t="n">
-        <v>6.341341341341478</v>
+        <v>6.254694694694837</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/square_01/cosinor_per_day_fixed_period_8_square_01_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_01/cosinor_per_day_fixed_period_8_square_01_.xlsx
@@ -565,7 +565,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>24.52000000000039</v>
+        <v>24.49000000000039</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1420904863558349</v>
+        <v>0.001929338776771594</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1420904863558349</v>
+        <v>0.001929338776771594</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>21.33312214223257</v>
+        <v>47.34667086553103</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[-7.130940907468755, 49.79718519193389]</t>
+          <t>[17.625495918221603, 77.06784581284046]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.1381557103380096</v>
+        <v>0.002460236675118299</v>
       </c>
       <c r="O2" t="n">
-        <v>0.1381557103380096</v>
+        <v>0.002460236675118299</v>
       </c>
       <c r="P2" t="n">
-        <v>1.163552834662887</v>
+        <v>1.62897396852804</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[-1.7044476659115784, 4.031553335237351]</t>
+          <t>[0.7987632973091152, 2.459184639746965]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>0.418162084492578</v>
+        <v>0.0002708235589694574</v>
       </c>
       <c r="S2" t="n">
-        <v>0.418162084492578</v>
+        <v>0.0002708235589694574</v>
       </c>
       <c r="T2" t="n">
-        <v>57.55063296840578</v>
+        <v>67.73106069258111</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[42.433902379313324, 72.66736355749823]</t>
+          <t>[49.81392552581649, 85.64819585934573]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>1.05374664549629e-09</v>
+        <v>1.264941040801659e-09</v>
       </c>
       <c r="W2" t="n">
-        <v>1.05374664549629e-09</v>
+        <v>1.264941040801659e-09</v>
       </c>
       <c r="X2" t="n">
-        <v>19.97925925925958</v>
+        <v>18.14074074074103</v>
       </c>
       <c r="Y2" t="n">
-        <v>8.78694694694709</v>
+        <v>14.90482482482506</v>
       </c>
       <c r="Z2" t="n">
-        <v>31.17157157157207</v>
+        <v>21.376656656657</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>24.52000000000039</v>
+        <v>24.49000000000039</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.01587655987138681</v>
+        <v>0.0006207608323424152</v>
       </c>
       <c r="I3" t="n">
-        <v>0.01587655987138681</v>
+        <v>0.0006207608323424152</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>32.8804660640216</v>
+        <v>49.21415596480016</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[5.582553122523343, 60.178379005519865]</t>
+          <t>[21.34278168254511, 77.08553024705522]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.01933808008628191</v>
+        <v>0.0008985721886809461</v>
       </c>
       <c r="O3" t="n">
-        <v>0.01933808008628191</v>
+        <v>0.0008985721886809461</v>
       </c>
       <c r="P3" t="n">
-        <v>1.402552876377425</v>
+        <v>1.691868716347656</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[0.23271056693257552, 2.572395185822274]</t>
+          <t>[0.9748685912040393, 2.408868841491273]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>0.0198724409230302</v>
+        <v>2.086644355903111e-05</v>
       </c>
       <c r="S3" t="n">
-        <v>0.0198724409230302</v>
+        <v>2.086644355903111e-05</v>
       </c>
       <c r="T3" t="n">
-        <v>67.31151724737798</v>
+        <v>70.90091011103041</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[51.648078086606844, 82.97495640814911]</t>
+          <t>[53.9749482857335, 87.82687193632734]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>3.911293511293934e-11</v>
+        <v>8.043299359883349e-11</v>
       </c>
       <c r="W3" t="n">
-        <v>3.911293511293934e-11</v>
+        <v>8.043299359883349e-11</v>
       </c>
       <c r="X3" t="n">
-        <v>19.04656656656687</v>
+        <v>17.89559559559588</v>
       </c>
       <c r="Y3" t="n">
-        <v>14.48128128128151</v>
+        <v>15.10094094094118</v>
       </c>
       <c r="Z3" t="n">
-        <v>23.61185185185224</v>
+        <v>20.69025025025058</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>24.52000000000039</v>
+        <v>24.49000000000039</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.002794187975679763</v>
+        <v>1.168128371809019e-09</v>
       </c>
       <c r="I4" t="n">
-        <v>0.002794187975679763</v>
+        <v>1.168128371809019e-09</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>40.32315010676437</v>
+        <v>81.56761088317914</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[12.398476117082268, 68.24782409644648]</t>
+          <t>[59.36308749680029, 103.772134269558]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.005625279566831898</v>
+        <v>2.621076911069053e-09</v>
       </c>
       <c r="O4" t="n">
-        <v>0.005625279566831898</v>
+        <v>2.621076911069053e-09</v>
       </c>
       <c r="P4" t="n">
-        <v>1.301921279866041</v>
+        <v>1.50318447288881</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[0.48428955821104047, 2.119553001521041]</t>
+          <t>[1.1761317842268095, 1.8302371615508104]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0.002470335975375937</v>
+        <v>5.512479361868827e-12</v>
       </c>
       <c r="S4" t="n">
-        <v>0.002470335975375937</v>
+        <v>5.512479361868827e-12</v>
       </c>
       <c r="T4" t="n">
-        <v>57.73680132759517</v>
+        <v>70.46799235938887</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[41.97072764629502, 73.50287500889533]</t>
+          <t>[56.164295387521236, 84.77168933125651]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>2.833144607805593e-09</v>
+        <v>6.630251903061435e-13</v>
       </c>
       <c r="W4" t="n">
-        <v>2.833144607805593e-09</v>
+        <v>6.630251903061435e-13</v>
       </c>
       <c r="X4" t="n">
-        <v>19.43927927927959</v>
+        <v>18.63103103103133</v>
       </c>
       <c r="Y4" t="n">
-        <v>16.24848848848875</v>
+        <v>17.35627627627655</v>
       </c>
       <c r="Z4" t="n">
-        <v>22.63007007007043</v>
+        <v>19.9057857857861</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>24.52000000000039</v>
+        <v>24.49000000000039</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>2.427386996473047e-05</v>
+        <v>0.01027352548372762</v>
       </c>
       <c r="I5" t="n">
-        <v>2.427386996473047e-05</v>
+        <v>0.01027352548372762</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>44.96067884505165</v>
+        <v>29.64935659067738</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[21.531839632694457, 68.38951805740884]</t>
+          <t>[5.095992670065975, 54.20272051128878]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.0003539273451895752</v>
+        <v>0.01905218362670569</v>
       </c>
       <c r="O5" t="n">
-        <v>0.0003539273451895752</v>
+        <v>0.01905218362670569</v>
       </c>
       <c r="P5" t="n">
-        <v>0.8993948938205012</v>
+        <v>1.075500187715424</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[0.37107901213573147, 1.427710775505271]</t>
+          <t>[0.09434212172942225, 2.0566582537014266]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.001307671816263678</v>
+        <v>0.03240009460779225</v>
       </c>
       <c r="S5" t="n">
-        <v>0.001307671816263678</v>
+        <v>0.03240009460779225</v>
       </c>
       <c r="T5" t="n">
-        <v>46.8886813932255</v>
+        <v>58.29298818602317</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[34.608893939775186, 59.16846884667581]</t>
+          <t>[45.001362996610865, 71.58461337543548]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>9.759397734399045e-10</v>
+        <v>2.18254303518961e-11</v>
       </c>
       <c r="W5" t="n">
-        <v>9.759397734399045e-10</v>
+        <v>2.18254303518961e-11</v>
       </c>
       <c r="X5" t="n">
-        <v>21.01013013013047</v>
+        <v>20.29801801801834</v>
       </c>
       <c r="Y5" t="n">
-        <v>18.9483883883887</v>
+        <v>16.47375375375401</v>
       </c>
       <c r="Z5" t="n">
-        <v>23.07187187187224</v>
+        <v>24.12228228228267</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>25.8200000000006</v>
+        <v>25.8300000000006</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0001375968508305903</v>
+        <v>0.0001061514107678629</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0001375968508305903</v>
+        <v>0.0001061514107678629</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>50.82941859554889</v>
+        <v>48.03304124783308</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[21.513492637322983, 80.14534455377479]</t>
+          <t>[20.926547047267704, 75.13953544839845]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.001086255455417851</v>
+        <v>0.0008656311657537774</v>
       </c>
       <c r="O6" t="n">
-        <v>0.001086255455417851</v>
+        <v>0.0008656311657537774</v>
       </c>
       <c r="P6" t="n">
-        <v>0.8616580451287321</v>
+        <v>0.761026448617347</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[0.3333421634439624, 1.3899739268135018]</t>
+          <t>[0.2327105669325773, 1.2893423303021168]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.001980527455344605</v>
+        <v>0.005733328730479714</v>
       </c>
       <c r="S6" t="n">
-        <v>0.001980527455344605</v>
+        <v>0.005733328730479714</v>
       </c>
       <c r="T6" t="n">
-        <v>64.9192575558852</v>
+        <v>59.50033609473118</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[49.630043784130066, 80.20847132764032]</t>
+          <t>[45.401105088426604, 73.59956710103576]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>5.496425536932747e-11</v>
+        <v>6.532618890275899e-11</v>
       </c>
       <c r="W6" t="n">
-        <v>5.496425536932747e-11</v>
+        <v>6.532618890275899e-11</v>
       </c>
       <c r="X6" t="n">
-        <v>22.27911911911963</v>
+        <v>22.70144144144197</v>
       </c>
       <c r="Y6" t="n">
-        <v>20.10806806806853</v>
+        <v>20.52954954955003</v>
       </c>
       <c r="Z6" t="n">
-        <v>24.45017017017074</v>
+        <v>24.87333333333391</v>
       </c>
     </row>
     <row r="7">
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>25.8200000000006</v>
+        <v>25.8300000000006</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>1.001502088748829e-05</v>
+        <v>0.0001684551499996356</v>
       </c>
       <c r="I7" t="n">
-        <v>1.001502088748829e-05</v>
+        <v>0.0001684551499996356</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>63.51877427034402</v>
+        <v>50.96110163396573</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[35.50730414799442, 91.53024439269362]</t>
+          <t>[23.616509901232803, 78.30569336669866]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>3.827302125070098e-05</v>
+        <v>0.0004974215582898012</v>
       </c>
       <c r="O7" t="n">
-        <v>3.827302125070098e-05</v>
+        <v>0.0004974215582898012</v>
       </c>
       <c r="P7" t="n">
-        <v>0.1949737182408082</v>
+        <v>0.2704474156243464</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-0.3207632138800385, 0.7107106503616549]</t>
+          <t>[-0.3333421634439624, 0.8742369946926551]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.4503727851081925</v>
+        <v>0.3717805525056419</v>
       </c>
       <c r="S7" t="n">
-        <v>0.4503727851081925</v>
+        <v>0.3717805525056419</v>
       </c>
       <c r="T7" t="n">
-        <v>68.82611371979564</v>
+        <v>53.5850914527525</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[52.949583062502114, 84.70264437708917]</t>
+          <t>[38.42438810795626, 68.74579479754874]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>3.04751779367507e-11</v>
+        <v>6.794285800637567e-09</v>
       </c>
       <c r="W7" t="n">
-        <v>3.04751779367507e-11</v>
+        <v>6.794285800637567e-09</v>
       </c>
       <c r="X7" t="n">
-        <v>25.01877877877936</v>
+        <v>24.71819819819877</v>
       </c>
       <c r="Y7" t="n">
-        <v>22.89941941941995</v>
+        <v>22.23603603603655</v>
       </c>
       <c r="Z7" t="n">
-        <v>27.13813813813876</v>
+        <v>27.20036036036099</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>25.8200000000006</v>
+        <v>25.8300000000006</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0004597407380754204</v>
+        <v>0.001236781307191404</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0004597407380754204</v>
+        <v>0.001236781307191404</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>46.16002626225416</v>
+        <v>51.88893122527431</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[21.97534904734583, 70.3447034771625]</t>
+          <t>[20.158055281871725, 83.6198071686769]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.0003773712061734269</v>
+        <v>0.001931783306334589</v>
       </c>
       <c r="O8" t="n">
-        <v>0.0003773712061734269</v>
+        <v>0.001931783306334589</v>
       </c>
       <c r="P8" t="n">
-        <v>0.05660527303765317</v>
+        <v>0.1823947686768852</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-0.6100790538502725, 0.7232895999255788]</t>
+          <t>[-0.5346053564667308, 0.8993948938205012]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.8649834975903561</v>
+        <v>0.6109050709538892</v>
       </c>
       <c r="S8" t="n">
-        <v>0.8649834975903561</v>
+        <v>0.6109050709538892</v>
       </c>
       <c r="T8" t="n">
-        <v>68.38681649750841</v>
+        <v>65.57061021508514</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[53.556231712075906, 83.2174012829409]</t>
+          <t>[47.5515448163236, 83.58967561384668]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>4.99977836909693e-12</v>
+        <v>3.31907146211563e-09</v>
       </c>
       <c r="W8" t="n">
-        <v>4.99977836909693e-12</v>
+        <v>3.31907146211563e-09</v>
       </c>
       <c r="X8" t="n">
-        <v>25.58738738738798</v>
+        <v>25.08018018018076</v>
       </c>
       <c r="Y8" t="n">
-        <v>22.84772772772825</v>
+        <v>22.13261261261313</v>
       </c>
       <c r="Z8" t="n">
-        <v>28.32704704704771</v>
+        <v>28.0277477477484</v>
       </c>
     </row>
     <row r="9">
@@ -1167,7 +1167,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>25.8200000000006</v>
+        <v>25.8300000000006</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>1.233102615016968e-06</v>
+        <v>1.153761353123173e-08</v>
       </c>
       <c r="I9" t="n">
-        <v>1.233102615016968e-06</v>
+        <v>1.153761353123173e-08</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>54.84569182144914</v>
+        <v>57.64617050885936</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[31.690861309377254, 78.00052233352103]</t>
+          <t>[36.103877939113666, 79.18846307860505]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>1.965790913560639e-05</v>
+        <v>2.488741279282891e-06</v>
       </c>
       <c r="O9" t="n">
-        <v>1.965790913560639e-05</v>
+        <v>2.488741279282891e-06</v>
       </c>
       <c r="P9" t="n">
-        <v>-0.4025263860455386</v>
+        <v>-0.6163685286322318</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[-0.8679475199106941, 0.0628947478196169]</t>
+          <t>[-0.9937370155499243, -0.23900004171453926]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.08835334470312461</v>
+        <v>0.001953579629230262</v>
       </c>
       <c r="S9" t="n">
-        <v>0.08835334470312461</v>
+        <v>0.001953579629230262</v>
       </c>
       <c r="T9" t="n">
-        <v>62.83015869490558</v>
+        <v>56.35352086032576</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[50.115686215259565, 75.5446311745516]</t>
+          <t>[45.286645944085635, 67.42039577656588]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>6.0285110237146e-13</v>
+        <v>2.34257058195908e-13</v>
       </c>
       <c r="W9" t="n">
-        <v>6.0285110237146e-13</v>
+        <v>2.34257058195908e-13</v>
       </c>
       <c r="X9" t="n">
-        <v>1.654134134134171</v>
+        <v>2.533873873873933</v>
       </c>
       <c r="Y9" t="n">
-        <v>-0.2584584584584693</v>
+        <v>0.9825225225225469</v>
       </c>
       <c r="Z9" t="n">
-        <v>3.566726726726812</v>
+        <v>4.085225225225319</v>
       </c>
     </row>
     <row r="10">
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>25.8200000000006</v>
+        <v>25.8300000000006</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>3.749629340354943e-06</v>
+        <v>6.293056052930623e-07</v>
       </c>
       <c r="I10" t="n">
-        <v>3.749629340354943e-06</v>
+        <v>6.293056052930623e-07</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>68.2096059002437</v>
+        <v>68.5403933767378</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[34.78126371094784, 101.63794808953956]</t>
+          <t>[37.12770062828828, 99.95308612518731]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.0001655130496664992</v>
+        <v>6.688034475788029e-05</v>
       </c>
       <c r="O10" t="n">
-        <v>0.0001655130496664992</v>
+        <v>6.688034475788029e-05</v>
       </c>
       <c r="P10" t="n">
-        <v>-1.031473864241693</v>
+        <v>-0.8931054190385401</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[-1.522052897234694, -0.5408948312486928]</t>
+          <t>[-1.3207897042119257, -0.4654211338651546]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>0.0001114828898529652</v>
+        <v>0.000122172615976357</v>
       </c>
       <c r="S10" t="n">
-        <v>0.0001114828898529652</v>
+        <v>0.000122172615976357</v>
       </c>
       <c r="T10" t="n">
-        <v>72.91864675502721</v>
+        <v>67.11291685252854</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[55.5112378257745, 90.32605568427992]</t>
+          <t>[51.177117847308466, 83.04871585774862]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>8.040190735414399e-11</v>
+        <v>6.920131134791063e-11</v>
       </c>
       <c r="W10" t="n">
-        <v>8.040190735414399e-11</v>
+        <v>6.920131134791063e-11</v>
       </c>
       <c r="X10" t="n">
-        <v>4.238718718718815</v>
+        <v>3.671531531531617</v>
       </c>
       <c r="Y10" t="n">
-        <v>2.222742742742792</v>
+        <v>1.913333333333377</v>
       </c>
       <c r="Z10" t="n">
-        <v>6.254694694694837</v>
+        <v>5.429729729729857</v>
       </c>
     </row>
   </sheetData>
